--- a/data/运输下单测试用例-DEV.xlsx
+++ b/data/运输下单测试用例-DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -13310,10 +13310,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13343,8 +13343,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13358,46 +13382,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13411,9 +13404,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13436,37 +13451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13482,6 +13467,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13514,7 +13514,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13532,133 +13622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13676,7 +13640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13688,13 +13664,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13727,7 +13727,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13748,16 +13772,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13786,30 +13810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -13828,10 +13828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13840,133 +13840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14441,8 +14441,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -16735,7 +16735,7 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/data/运输下单测试用例-DEV.xlsx
+++ b/data/运输下单测试用例-DEV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">基础数据!$A$1:$I$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">采购订单!$A$1:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">采购订单!$A$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">国内铁运!$A$1:$I$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内海运!$A$1:$I$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">国内空运!$A$1:$I$67</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5725" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5725" uniqueCount="2397">
   <si>
     <t>case_id</t>
   </si>
@@ -13737,14 +13737,6 @@
     <t>运输下单-国际海运-详情查询运输信息的要求出货日期，要求到货日期,唛头与保存是否一致</t>
   </si>
   <si>
-    <t>[
-["Equal","True","$..success"],
-["Equal","1622776198000","$..shippingInfo..reqTimeOfDepart"],
-["Equal","1622862598000","$..shippingInfo..reqTimeOfArrival"],
-["Equal","absadfasdf","$..shippingInfo..marksAndNumbers"]
-]</t>
-  </si>
-  <si>
     <t>0665</t>
   </si>
   <si>
@@ -14051,7 +14043,6 @@
     "companyPn": "P123456!",
     "descriptionGoods": "123SAFD@#",
     "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
     "referenceLineNo": "456456~@#",
     "unitPrice": "13699.112233",
     "volume": "13699.112233",
@@ -14111,7 +14102,6 @@
 ["Equal","P123456!","$..cargoInfoLines..companyPn"],
 ["Equal","123SAFD@#","$..cargoInfoLines..descriptionGoods"],
 ["Equal","465ASDFASDF_A","$..cargoInfoLines..hsCode"],
-["Equal","ASDFaa","$..cargoInfoLines..invoiceNumber"],
 ["Equal","456456~@#","$..cargoInfoLines..referenceLineNo"],
 ["Equal","13699.112233","$..cargoInfoLines..unitPrice"],
 ["Equal","13699.112233","$..cargoInfoLines..volume"],
@@ -14122,11 +14112,8 @@
 ["Equal","${currencyCode}","$..cargoInfoLines..currencyCode"],
 ["Equal","83699.112233","$..cargoInfoLines..grossWeight"],
 ["Equal","73699.112233","$..cargoInfoLines..netWeight"],
-["Equal","14","$..cargoInfoLines..bulkCartonQty"],
 ["Equal","${units_id}","$..cargoInfoLines..bulkCartonQtyUnitCode"],
-["Equal","11","$..cargoInfoLines..pieceQty"],
 ["Equal","${units_id}","$..cargoInfoLines..pieceQtyUnitCode"],
-["Equal","12","$..cargoInfoLines..totalPackageQty"],
 ["Equal","${units_id}","$..cargoInfoLines..totalPackageQtyUnitCode"],
 ["Equal","${internat_reference_order_id}","$..cargoInfoLines..referenceOrderTypeCode"],
 ["Equal","${PHONE}","$..cargoInfoLines..referenceOrderNos[0]"],
@@ -16061,6 +16048,32 @@
     <t>运输下单-国际铁运-详情查询货物明细信息的料号，品名，海关编码，发票号，包装数量，包装单位，参考单项次号，参考单号，长度，宽度，高度，单价，体积，毛重，净重，币种，金额与保存是否一致</t>
   </si>
   <si>
+    <t>[
+["Equal","True","$..success"],
+["Equal","P123456!","$..cargoInfoLines..companyPn"],
+["Equal","123SAFD@#","$..cargoInfoLines..descriptionGoods"],
+["Equal","465ASDFASDF_A","$..cargoInfoLines..hsCode"],
+["Equal","456456~@#","$..cargoInfoLines..referenceLineNo"],
+["Equal","13699.112233","$..cargoInfoLines..unitPrice"],
+["Equal","13699.112233","$..cargoInfoLines..volume"],
+["Equal","23699.112233","$..cargoInfoLines..width"],
+["Equal","33699.112233","$..cargoInfoLines..amount"],
+["Equal","43699.112233","$..cargoInfoLines..height"],
+["Equal","53699.112233","$..cargoInfoLines..length"],
+["Equal","${currencyCode}","$..cargoInfoLines..currencyCode"],
+["Equal","83699.112233","$..cargoInfoLines..grossWeight"],
+["Equal","73699.112233","$..cargoInfoLines..netWeight"],
+["Equal","${units_id}","$..cargoInfoLines..bulkCartonQtyUnitCode"],
+["Equal","${units_id}","$..cargoInfoLines..pieceQtyUnitCode"],
+["Equal","${units_id}","$..cargoInfoLines..totalPackageQtyUnitCode"],
+["Equal","${internat_reference_order_id}","$..cargoInfoLines..referenceOrderTypeCode"],
+["Equal","${PHONE}","$..cargoInfoLines..referenceOrderNos[0]"],
+["Equal","12.000000","$..cargoInfoLines..cargoQty"],
+["Equal","${units_id}","$..cargoInfoLines..cargoQtyUnitCode"],
+["Equal","${PHONE}","$..cargoInfoLines..cartonNos[0]"],
+]</t>
+  </si>
+  <si>
     <t>运输下单-国际铁运-详情查询(简易信息)货物明细信息的料号，品名，海关编码，发票号，包装数量，包装单位，参考单项次号，参考单号，长度，宽度，高度，单价，体积，毛重，净重，币种，金额与保存是否一致</t>
   </si>
   <si>
@@ -16441,350 +16454,6 @@
     <t>/api/juslink-sccp-shipment-demand-app/shipment-demand/international-rail/${submit_internat_rail_order_id}</t>
   </si>
   <si>
-    <t>{
-"referenceOrderGroups": {
-        "${internat_reference_order_id}": {
-            "referenceOrderTypeCode": "${internat_reference_order_id}",
-            "referenceOrderTypeName": "${internat_reference_order_name}",
-            "referenceOrderNos": [
-                "${@PHONE}"
-            ]
-        }
-    },
-"remarks": "${@PHONE}",
-"sourceOrderType":"NO_SOURCE",
-"attachments": [
-  {
-   "name": "${file_name}",
-   "typeCode": "${internat_rail_file_type_id}",
-   "url": "${file_id}"
-  }
- ],
-"addressInfo":{
- "shippingAddress":{ 
- "contactPartnerId": "${internat_shipper_contactPartnerId}",                                        
-   "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-   "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-   "addressCode": "${internat_shippingAddress_addressCode}",              
-   "countryCode": "${internat_shippingAddress_countryCode}",              
-      "countryName": "${internat_shippingAddress_countryName}",              
-   "provinceCode": "${internat_shippingAddress_provinceCode}",             
-      "provinceName": "${internat_shippingAddress_provinceName}",             
-   "cityCode": "${internat_shippingAddress_cityCode}",                 
-      "cityName": "${internat_shippingAddress_cityName}",                 
-   "districtCode": "${internat_shippingAddress_districtCode}",             
-      "districtName": "${internat_shippingAddress_districtName}",             
-   "streetCode": "${internat_shippingAddress_streetCode}",               
-      "streetName": "${internat_shippingAddress_streetName}",               
-   "addressDetail": "${internat_shippingAddress_addressDetail}",            
-   "postCode": "${internat_shippingAddress_postCode}",                 
-   "contactName": "${internat_shippingAddress_contactName}",              
-   "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-      "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-   "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-      "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}" ,
- "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
- "isDefault": False,
-"isInternationalPartner": True
-    },
-"receivingAddress":{
- "contactPartnerId": "${internat_consignee_contactPartnerId}",           
-  "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-  "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-  "addressCode": "${internat_receivingAddress_addressCode}",             
-  "countryCode": "${internat_receivingAddress_countryCode}",             
-   "countryName": "${internat_receivingAddress_countryName}",              
-  "provinceCode": "${internat_receivingAddress_provinceCode}",            
-   "provinceName": "${internat_receivingAddress_provinceName}",             
-  "cityCode": "${internat_receivingAddress_cityCode}",                
-   "cityName": "${internat_receivingAddress_cityName}",                 
-  "districtCode": "${internat_receivingAddress_districtCode}",            
-   "districtName": "${internat_receivingAddress_districtName}",             
-  "streetCode": "${internat_receivingAddress_streetCode}",              
-   "streetName": "${internat_receivingAddress_streetName}",               
-  "addressDetail": "${internat_receivingAddress_addressDetail}",           
-  "postCode": "${internat_receivingAddress_postCode}",                
-  "contactName": "${internat_receivingAddress_contactName}",             
-  "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-   "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-  "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-   "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}" ,
- "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
- "isDefault": False,
-"isInternationalPartner": True
-    },
-"originCityId": "${internat_cityCode_1}",
-"originLocationCode":"${five_word_id_3}",
-"destinationCityId": "${internat_cityCode_2}",
-"destinationLocationCode":"${five_word_id_4}" 
-},
-"shippingInfo": {
-  "partialShipmentAllowed":True,
-   "selfProvidedCabinet":True,
-   "transhipmentAllowed":True, 
-  "railTransportationNode": {
-   "designatedrailport": True,
-   "originrailportId": "${rail_origin_id}",
-   "dischargerailportId": "${rail_dest_id}"
-  }, 
-  "reqTimeOfDepart": 1622776198000,
-   "reqTimeOfArrival ": 1622862598000,
-  "etd": 1657784368000,
-   "eta": 1689320368000,
-   "loadingTypeCode": "${internat_rail_load_type_id}",
-   "serviceModeCode": "${internat_rail_server_type_id}",
-   "incotermsCode":"${incoterms_id}",
-   "billOfLadingTypeCode":"${rail_lading_type}",
-   "selfProvidedCabinet":True,
-   "needMultiPickUpAndDelivery":False
- ,
-   "containerInfos": [
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-     "originCityId": "${internat_cityCode_1}",
-   "originLocationCode":"${five_word_id_3}",
-   "destinationCityId": "${internat_cityCode_2}",
-   "destinationLocationCode":"${five_word_id_4}",
-   "shipper":{                                           
-          "contactPartnerId": "${internat_shipper_contactPartnerId}",    
-          "contactPartnerName": "${internat_shipper_contactPartnerName}",  
-                     "contactPartnerType": "${internat_shipper_contactPartnerType}",  
-           "addressAbbreviation": "${internat_shipper_addressAbbreviation}",
-          "addressCode": "${internat_shipper_addressCode}",         
-          "countryCode": "${internat_shipper_countryCode}",         
-                     "countryName": "${internat_shipper_countryName}",         
-          "provinceCode": "${internat_shipper_provinceCode}",        
-                     "provinceName": "${internat_shipper_provinceName}",        
-          "cityCode": "${internat_shipper_cityCode}",            
-                     "cityName": "${internat_shipper_cityName}",            
-          "districtCode": "${internat_shipper_districtCode}",        
-                     "districtName": "${internat_shipper_districtName}",        
-          "streetCode": "${internat_shipper_streetCode}",          
-                     "streetName": "${internat_shipper_streetName}",          
-          "addressDetail": "${internat_shipper_addressDetail}",       
-          "postCode": "${internat_shipper_postCode}",            
-          "contactName": "${internat_shipper_contactName}",         
-          "telephoneArea": "${internat_shipper_telephoneArea}",        
-                     "telephoneNumber": "${internat_shipper_telephoneNumber}",     
-          "mobileNumber": "${internat_shipper_mobileNumber}",        
-                     "mobileArea": "${internat_shipper_mobileArea}",          
-          "email": "${internat_shipper_email}" ,
-     "transportLocationCode": "${internat_shipper_transportLocationCode}" ,
-  "isDefault": True,
- "isInternationalPartner": True
-          }  ,                                                              
-   "pickUp":True,
-   "marksAndNumbers":"${@CHAR}",
- "consignee":{                                         
-         "contactPartnerId": "${internat_consignee_contactPartnerId}",    
-         "contactPartnerName": "${internat_consignee_contactPartnerName}",  
-                   "contactPartnerType": "${internat_consignee_contactPartnerType}",  
-         "addressAbbreviation": "${internat_consignee_addressAbbreviation}",
-         "addressCode": "${internat_consignee_addressCode}",         
-         "countryCode": "${internat_consignee_countryCode}",         
-                   "countryName": "${internat_consignee_countryName}",         
-         "provinceCode": "${internat_consignee_provinceCode}",        
-                   "provinceName": "${internat_consignee_provinceName}",        
-         "cityCode": "${internat_consignee_cityCode}",            
-                   "cityName": "${internat_consignee_cityName}",            
-         "districtCode": "${internat_consignee_districtCode}",        
-                   "districtName": "${internat_consignee_districtName}",        
-         "streetCode": "${internat_consignee_streetCode}",          
-                   "streetName": "${internat_consignee_streetName}",          
-         "addressDetail": "${internat_consignee_addressDetail}",       
-         "postCode": "${internat_consignee_postCode}",            
-         "contactName": "${internat_consignee_contactName}",         
-         "telephoneArea": "${internat_consignee_telephoneArea}",        
-                   "telephoneNumber": "${internat_consignee_telephoneNumber}",     
-         "mobileNumber": "${internat_consignee_mobileNumber}",        
-                   "mobileArea": "${internat_consignee_mobileArea}",          
-         "email": "${internat_consignee_email}" ,
-  "transportLocationCode": "${internat_consignee_transportLocationCode}",
-  "isDefault": True,
-  "isInternationalPartner": True
-     } ,                                                                          
- "takeDelivery":True,
- "notifyParty":{                                
-    "contactPartnerId": "${internat_notifyParty_contactPartnerId}",    
-    "contactPartnerName": "${internat_notifyParty_contactPartnerName}",  
-        "contactPartnerType": "${internat_notifyParty_contactPartnerType}",  
-    "addressAbbreviation": "${internat_notifyParty_addressAbbreviation}",
-    "addressCode": "${internat_notifyParty_addressCode}",         
-    "countryCode": "${internat_notifyParty_countryCode}",         
-        "countryName": "${internat_notifyParty_countryName}",         
-    "provinceCode": "${internat_notifyParty_provinceCode}",        
-        "provinceName": "${internat_notifyParty_provinceName}",        
-    "cityCode": "${internat_notifyParty_cityCode}",            
-        "cityName": "${internat_notifyParty_cityName}",            
-    "districtCode": "${internat_notifyParty_districtCode}",        
-        "districtName": "${internat_notifyParty_districtName}",        
-    "streetCode": "${internat_notifyParty_streetCode}",          
-        "streetName": "${internat_notifyParty_streetName}",          
-    "addressDetail": "${internat_notifyParty_addressDetail}",       
-    "postCode": "${internat_notifyParty_postCode}",            
-    "contactName": "${internat_notifyParty_contactName}",         
-    "telephoneArea": "${internat_notifyParty_telephoneArea}",        
-        "telephoneNumber": "${internat_notifyParty_telephoneNumber}",     
-    "mobileNumber": "${internat_notifyParty_mobileNumber}",        
-        "mobileArea": "${internat_notifyParty_mobileArea}",          
-    "email": "${internat_notifyParty_email}" ,
- "transportLocationCode": "${internat_notifyParty_transportLocationCode}" ,
- "isDefault": True,
-"isInternationalPartner": True
-    },
-   "entrustedParty":{                            
-  "contactPartnerId": "${internat_entrustedParty_contactPartnerId}",   
-  "contactPartnerName": "${internat_entrustedParty_contactPartnerName}", 
-   "contactPartnerType": "${internat_entrustedParty_contactPartnerType}",  
-  "addressAbbreviation": "${internat_entrustedParty_addressAbbreviation}",
-  "addressCode": "${internat_entrustedParty_addressCode}",        
-  "countryCode": "${internat_entrustedParty_countryCode}",        
-   "countryName": "${internat_entrustedParty_countryName}",         
-  "provinceCode": "${internat_entrustedParty_provinceCode}",       
-   "provinceName": "${internat_entrustedParty_provinceName}",        
-  "cityCode": "${internat_entrustedParty_cityCode}",           
-   "cityName": "${internat_entrustedParty_cityName}",            
-  "districtCode": "${internat_entrustedParty_districtCode}",       
-   "districtName": "${internat_entrustedParty_districtName}",        
-  "streetCode": "${internat_entrustedParty_streetCode}",         
-   "streetName": "${internat_entrustedParty_streetName}",          
-  "addressDetail": "${internat_entrustedParty_addressDetail}",      
-  "postCode": "${internat_entrustedParty_postCode}",           
-  "contactName": "${internat_entrustedParty_contactName}",        
-  "telephoneArea": "${internat_entrustedParty_telephoneArea}",       
-   "telephoneNumber": "${internat_entrustedParty_telephoneNumber}",     
-  "mobileNumber": "${internat_entrustedParty_mobileNumber}",       
-   "mobileArea": "${internat_entrustedParty_mobileArea}",          
- "email": "${internat_entrustedParty_email}" ,
-  "transportLocationCode": "${internat_entrustedParty_transportLocationCode}",
-  "isDefault": True,
-"isInternationalPartner": True
-   }  
- },
-"cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-   {
-    "companyPn": "${internatal_rail_part_no}",
-    "descriptionGoods": "${internatal_rail_description}",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "referenceLineNo": "${internatal_rail_po_line}",
-    "referenceNo": "${internatal_rail_po_no}",
-    "unitPrice": "13699.112233",
-    "volume": "13699.112233",
-    "width": "23699.112233",
-    "amount": "33699.112233",
-    "height": "43699.112233",
-    "length": "53699.112233",
-    "currencyCode": "${currencyCode}",
-    "grossWeight": "83699.112233",
-    "netWeight": "73699.112233",
- "bulkCartonQty": 1,
-    "bulkCartonQtyUnitCode": "${units_id}",
-    "originCityId": "${origin_city_code}",
-    "destinationCityId": "${destion_city_code}",
- "pieceQty": 11,
- "pieceQtyUnitCode": "${units_id}",
- "cargoQty": 1,
- "cargoQtyUnitCode": "${internatal_rail_uom}",
- "cartonNos":["${@PHONE}"],
- "totalPackageQty": 1,
- "totalPackageQtyUnitCode": "${units_id}",
- "referenceOrderGroups": {
-        "${internat_reference_order_id}": {
-            "referenceOrderTypeCode": "${internat_reference_order_id}",
-            "referenceOrderTypeName": "${internat_reference_order_name}",
-            "referenceOrderNos": [
-                "${@PHONE}"
-            ]
-        }
-    },
- "shippingAddress":
-     { 
-  "contactPartnerId": "${internat_shipper_contactPartnerId}", 
-     "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${internat_shippingAddress_addressCode}",              
-     "countryCode": "${internat_shippingAddress_countryCode}",              
-          "countryName": "${internat_shippingAddress_countryName}",              
-     "provinceCode": "${internat_shippingAddress_provinceCode}",             
-          "provinceName": "${internat_shippingAddress_provinceName}",             
-     "cityCode": "${internat_shippingAddress_cityCode}",                 
-          "cityName": "${internat_shippingAddress_cityName}",                 
-     "districtCode": "${internat_shippingAddress_districtCode}",             
-          "districtName": "${internat_shippingAddress_districtName}",             
-     "streetCode": "${internat_shippingAddress_streetCode}",               
-          "streetName": "${internat_shippingAddress_streetName}",               
-     "addressDetail": "${internat_shippingAddress_addressDetail}",            
-     "postCode": "${internat_shippingAddress_postCode}",                 
-     "contactName": "${internat_shippingAddress_contactName}",              
-     "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-          "mobileArea": "${internat_shippingAddress_mobileArea}", 
-   "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
-     "email": "${internat_shippingAddress_email}"                    
-    },
- "receivingAddress":
-    { 
-  "contactPartnerId": "${internat_consignee_contactPartnerId}",  
-      "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${internat_receivingAddress_addressCode}",             
-      "countryCode": "${internat_receivingAddress_countryCode}",             
-           "countryName": "${internat_receivingAddress_countryName}",              
-      "provinceCode": "${internat_receivingAddress_provinceCode}",            
-           "provinceName": "${internat_receivingAddress_provinceName}",             
-      "cityCode": "${internat_receivingAddress_cityCode}",                
-           "cityName": "${internat_receivingAddress_cityName}",                 
-      "districtCode": "${internat_receivingAddress_districtCode}",            
-           "districtName": "${internat_receivingAddress_districtName}",             
-      "streetCode": "${internat_receivingAddress_streetCode}",              
-           "streetName": "${internat_receivingAddress_streetName}",               
-      "addressDetail": "${internat_receivingAddress_addressDetail}",           
-      "postCode": "${internat_receivingAddress_postCode}",                
-      "contactName": "${internat_receivingAddress_contactName}",             
-      "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-           "mobileArea": "${internat_receivingAddress_mobileArea}", 
-  "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",    
-     "email": "${internat_receivingAddress_email}"                     
-    }
-   }
-  ] 
-    },
- "valueAddedBusiness": {
-  "cargoValue": 10,
-  "currencyCode": "${currencyCode}",
-  "insurance": True,
-  "entrustCustomsDeclaration":False,
-  "customsBroker":"${@INT}",
-  "insuredValue":11
- }
-}</t>
-  </si>
-  <si>
     <t>{"internat_rail_order_id":"$..data","save_international_rail_params":"input_params"}</t>
   </si>
   <si>
@@ -16820,7 +16489,7 @@
       "poNo": "${internatal_rail_po_no}"
     }
   ],
-  "shippingModeCode": "TPM_rail",
+  "shippingModeCode": "TPM_RAIL",
   "transnationalShipment": True
 }</t>
   </si>
@@ -16845,7 +16514,7 @@
 ["Equal","${internatal_rail_uom}","$..cargoQtyUnitCode"],
 ["Equal","${internatal_rail_po_line}","$..poLineNo"],
 ["Equal","${internatal_rail_po_no}","$..poNo"],
-["Equal","TPM_rail","$..shippingModeCode"],
+["Equal","TPM_RAIL","$..shippingModeCode"],
 ]</t>
   </si>
   <si>
@@ -17355,30 +17024,32 @@
  "id":${internat_air_save_id},
 "addressInfo": 
   {
-   "shippingAddress":{                                        
-   "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-   "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-   "addressCode": "${internat_shippingAddress_addressCode}",              
-   "countryCode": "${internat_shippingAddress_countryCode}",              
-      "countryName": "${internat_shippingAddress_countryName}",              
-   "provinceCode": "${internat_shippingAddress_provinceCode}",             
-      "provinceName": "${internat_shippingAddress_provinceName}",             
-   "cityCode": "${internat_shippingAddress_cityCode}",                 
-      "cityName": "${internat_shippingAddress_cityName}",                 
-   "districtCode": "${internat_shippingAddress_districtCode}",             
-      "districtName": "${internat_shippingAddress_districtName}",             
-   "streetCode": "${internat_shippingAddress_streetCode}",               
-      "streetName": "${internat_shippingAddress_streetName}",               
-   "addressDetail": "${internat_shippingAddress_addressDetail}",            
-   "postCode": "${internat_shippingAddress_postCode}",                 
-   "contactName": "${internat_shippingAddress_contactName}",              
-   "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-      "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-   "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-      "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}"                    
-    }   ,
-"shippingAddressSameAsShipper":True
+   "shippingAddress":
+    { 
+      "contactPartnerId": "${internat_shipper_contactPartnerId}",                                      
+      "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",     
+      "addressCode": "${internat_shippingAddress_addressCode}",             
+      "countryCode": "${internat_shippingAddress_countryCode}",             
+           "countryName": "${internat_shippingAddress_countryName}",              
+      "provinceCode": "${internat_shippingAddress_provinceCode}",            
+           "provinceName": "${internat_shippingAddress_provinceName}",             
+      "cityCode": "${internat_shippingAddress_cityCode}",                
+           "cityName": "${internat_shippingAddress_cityName}",                 
+      "districtCode": "${internat_shippingAddress_districtCode}",            
+           "districtName": "${internat_shippingAddress_districtName}",             
+      "streetCode": "${internat_shippingAddress_streetCode}",              
+           "streetName": "${internat_shippingAddress_streetName}",               
+      "addressDetail": "${internat_shippingAddress_addressDetail}",           
+      "postCode": "${internat_shippingAddress_postCode}",                
+      "contactName": "${internat_shippingAddress_contactName}",             
+      "telephoneArea": "${internat_shippingAddress_telephoneArea}",            
+           "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
+      "mobileNumber": "${internat_shippingAddress_mobileNumber}",            
+           "mobileArea": "${internat_shippingAddress_mobileArea}",               
+     "email": "${internat_shippingAddress_email}",
+      "transportLocationCode":"${internat_shippingAddress_transportLocationCode}"                 
+    }
   }
 }</t>
   </si>
@@ -17387,32 +17058,6 @@
   </si>
   <si>
     <t>运输下单-国际空运-详情查询运输信息的发货地址信息与保存是否一致</t>
-  </si>
-  <si>
-    <t>[
-["Equal","True","$..success"],
-["Equal","${internat_shippingAddress_contactPartnerAddressId}","$..addressInfo..shippingAddress..contactPartnerAddressId"],
-["Equal","${internat_shippingAddress_addressAbbreviation}","$..addressInfo..shippingAddress..addressAbbreviation"],        
-["Equal","${internat_shippingAddress_addressCode}","$..addressInfo..shippingAddress..addressCode"],                        
-["Equal","${internat_shippingAddress_countryCode}","$..addressInfo..shippingAddress..countryCode"],                        
-["Equal","${internat_shippingAddress_countryName}","$..addressInfo..shippingAddress..countryName"],                        
-["Equal","${internat_shippingAddress_provinceCode}","$..addressInfo..shippingAddress..provinceCode"],                      
-["Equal","${internat_shippingAddress_provinceName}","$..addressInfo..shippingAddress..provinceName"],                      
-["Equal","${internat_shippingAddress_cityCode}","$..addressInfo..shippingAddress..cityCode"],                              
-["Equal","${internat_shippingAddress_cityName}","$..addressInfo..shippingAddress..cityName"],                              
-["Equal","${internat_shippingAddress_districtCode}","$..addressInfo..shippingAddress..districtCode"],                      
-["Equal","${internat_shippingAddress_districtName}","$..addressInfo..shippingAddress..districtName"],                      
-["Equal","${internat_shippingAddress_streetCode}","$..addressInfo..shippingAddress..streetCode"],                          
-["Equal","${internat_shippingAddress_streetName}","$..addressInfo..shippingAddress..streetName"],                          
-["Equal","${internat_shippingAddress_addressDetail}","$..addressInfo..shippingAddress..addressDetail"],                    
-["Equal","${internat_shippingAddress_postCode}","$..addressInfo..shippingAddress..postCode"],                              
-["Equal","${internat_shippingAddress_contactName}","$..addressInfo..shippingAddress..contactName"],                        
-["Equal","${internat_shippingAddress_telephoneArea}","$..addressInfo..shippingAddress..telephoneArea"],                    
-["Equal","${internat_shippingAddress_telephoneNumber}","$..addressInfo..shippingAddress..telephoneNumber"],                
-["Equal","${internat_shippingAddress_mobileNumber}","$..addressInfo..shippingAddress..mobileNumber"],                      
-["Equal","${internat_shippingAddress_mobileArea}","$..addressInfo..shippingAddress..mobileArea"],                          
-["Equal","${internat_shippingAddress_email}","$..addressInfo..shippingAddress..email"],                                    
-]</t>
   </si>
   <si>
     <t>0779</t>
@@ -17484,30 +17129,31 @@
  "id":${internat_air_save_id},
 "addressInfo": 
   {
-   "receivingAddress":{                                    
-  "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-  "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-  "addressCode": "${internat_receivingAddress_addressCode}",             
-  "countryCode": "${internat_receivingAddress_countryCode}",             
-   "countryName": "${internat_receivingAddress_countryName}",              
-  "provinceCode": "${internat_receivingAddress_provinceCode}",            
-   "provinceName": "${internat_receivingAddress_provinceName}",             
-  "cityCode": "${internat_receivingAddress_cityCode}",                
-   "cityName": "${internat_receivingAddress_cityName}",                 
-  "districtCode": "${internat_receivingAddress_districtCode}",            
-   "districtName": "${internat_receivingAddress_districtName}",             
-  "streetCode": "${internat_receivingAddress_streetCode}",              
-   "streetName": "${internat_receivingAddress_streetName}",               
-  "addressDetail": "${internat_receivingAddress_addressDetail}",           
-  "postCode": "${internat_receivingAddress_postCode}",                
-  "contactName": "${internat_receivingAddress_contactName}",             
-  "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-   "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-  "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-   "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}"                                      
-    }  ,
-"receivingAddressSameAsConsignee":True                                                                                    
+    "receivingAddress":
+    { 
+      "contactPartnerId": "${internat_consignee_contactPartnerId}",                                      
+      "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${internat_receivingAddress_addressCode}",             
+      "countryCode": "${internat_receivingAddress_countryCode}",             
+           "countryName": "${internat_receivingAddress_countryName}",              
+      "provinceCode": "${internat_receivingAddress_provinceCode}",            
+           "provinceName": "${internat_receivingAddress_provinceName}",             
+      "cityCode": "${internat_receivingAddress_cityCode}",                
+           "cityName": "${internat_receivingAddress_cityName}",                 
+      "districtCode": "${internat_receivingAddress_districtCode}",            
+           "districtName": "${internat_receivingAddress_districtName}",             
+      "streetCode": "${internat_receivingAddress_streetCode}",              
+           "streetName": "${internat_receivingAddress_streetName}",               
+      "addressDetail": "${internat_receivingAddress_addressDetail}",           
+      "postCode": "${internat_receivingAddress_postCode}",                
+      "contactName": "${internat_receivingAddress_contactName}",             
+      "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
+           "mobileArea": "${internat_receivingAddress_mobileArea}",               
+     "email": "${internat_receivingAddress_email}"                     
+    }                                                                                    
   }
 }</t>
   </si>
@@ -17516,33 +17162,6 @@
   </si>
   <si>
     <t>运输下单-国际空运-详情查询运输信息的收货地址信息与保存是否一致</t>
-  </si>
-  <si>
-    <t>[
-["Equal","True","$..success"],
- ["Equal","${internat_receivingAddress_contactPartnerAddressId}","$..addressInfo..receivingAddress..contactPartnerAddressId"],
- ["Equal","${internat_receivingAddress_addressAbbreviation}","$..addressInfo..receivingAddress..addressAbbreviation"],        
- ["Equal","${internat_receivingAddress_addressCode}","$..addressInfo..receivingAddress..addressCode"],                        
- ["Equal","${internat_receivingAddress_countryCode}","$..addressInfo..receivingAddress..countryCode"],                        
-["Equal","${internat_receivingAddress_countryName}","$..addressInfo..receivingAddress..countryName"],                          
- ["Equal","${internat_receivingAddress_provinceCode}","$..addressInfo..receivingAddress..provinceCode"],                      
-["Equal","${internat_receivingAddress_provinceName}","$..addressInfo..receivingAddress..provinceName"],                        
- ["Equal","${internat_receivingAddress_cityCode}","$..addressInfo..receivingAddress..cityCode"],                              
-["Equal","${internat_receivingAddress_cityName}","$..addressInfo..receivingAddress..cityName"],                                
- ["Equal","${internat_receivingAddress_districtCode}","$..addressInfo..receivingAddress..districtCode"],                      
-["Equal","${internat_receivingAddress_districtName}","$..addressInfo..receivingAddress..districtName"],                        
- ["Equal","${internat_receivingAddress_streetCode}","$..addressInfo..receivingAddress..streetCode"],                          
-["Equal","${internat_receivingAddress_streetName}","$..addressInfo..receivingAddress..streetName"],                            
- ["Equal","${internat_receivingAddress_addressDetail}","$..addressInfo..receivingAddress..addressDetail"],                    
- ["Equal","${internat_receivingAddress_postCode}","$..addressInfo..receivingAddress..postCode"],                              
- ["Equal","${internat_receivingAddress_contactName}","$..addressInfo..receivingAddress..contactName"],                        
- ["Equal","${internat_receivingAddress_telephoneArea}","$..addressInfo..receivingAddress..telephoneArea"],                    
-["Equal","${internat_receivingAddress_telephoneNumber}","$..addressInfo..receivingAddress..telephoneNumber"],                  
- ["Equal","${internat_receivingAddress_mobileNumber}","$..addressInfo..receivingAddress..mobileNumber"],                      
-["Equal","${internat_receivingAddress_mobileArea}","$..addressInfo..receivingAddress..mobileArea"],                            
-["Equal","${internat_receivingAddress_email}","$..addressInfo..receivingAddress..email"], 
-["Equal","True","$..addressInfo..receivingAddressSameAsConsignee"],                                           
-]</t>
   </si>
   <si>
     <t>0785</t>
@@ -18033,7 +17652,7 @@
   <si>
     <t>{
 "referenceOrderGroups": {
-        "${cn_reference_order_id}": {
+        "${internat_reference_order_id}": {
             "referenceOrderTypeCode": "${internat_reference_order_id}",
             "referenceOrderTypeName": "${internat_reference_order_name}",
             "referenceOrderNos": [
@@ -18052,8 +17671,8 @@
  ],
  "addressInfo": 
   {
-   "shippingAddress":{ 
- "contactPartnerId": "${internat_shipper_contactPartnerId}",
+"shippingAddress":{ 
+ "contactPartnerId": "${internat_shipper_contactPartnerId}",                                        
    "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
    "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
    "addressCode": "${internat_shippingAddress_addressCode}",              
@@ -18074,10 +17693,13 @@
       "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
    "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
       "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}"                    
-    }   ,
+   "email": "${internat_shippingAddress_email}" ,
+ "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
 "receivingAddress":{
- "contactPartnerId": "${internat_consignee_contactPartnerId}",         
+ "contactPartnerId": "${internat_consignee_contactPartnerId}",           
   "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
   "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
   "addressCode": "${internat_receivingAddress_addressCode}",             
@@ -18098,8 +17720,11 @@
    "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
   "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
    "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}"                                      
-    }  ,
+ "email": "${internat_receivingAddress_email}" ,
+ "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
  "airTransportationNode": {
    "designatedAirport": True,
    "dischargeAirportId": "${air_dest_id}",
@@ -18278,12 +17903,10 @@
     "netWeight": "73699.112233",
  "bulkCartonQty": 1,
     "bulkCartonQtyUnitCode": "${units_id}",
-    "originCityId": "${origin_city_code}",
-    "destinationCityId": "${destion_city_code}",
  "pieceQty": 11,
  "pieceQtyUnitCode": "${units_id}",
  "cargoQty": 1,
- "cargoQtyUnitCode": "${internat_air_uom}",
+ "cargoQtyUnitCode": "${internatal_air_uom}",
  "cartonNos":["${@PHONE}"],
  "totalPackageQty": 1,
  "totalPackageQtyUnitCode": "${units_id}",
@@ -18345,7 +17968,7 @@
   <si>
     <t>{
 "referenceOrderGroups": {
-        "${cn_reference_order_id}": {
+        "${internat_reference_order_id}": {
             "referenceOrderTypeCode": "${internat_reference_order_id}",
             "referenceOrderTypeName": "${internat_reference_order_name}",
             "referenceOrderNos": [
@@ -18364,8 +17987,8 @@
  ],
  "addressInfo": 
   {
-   "shippingAddress":{ 
- "contactPartnerId": "${internat_shipper_contactPartnerId}",
+"shippingAddress":{ 
+ "contactPartnerId": "${internat_shipper_contactPartnerId}",                                        
    "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
    "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
    "addressCode": "${internat_shippingAddress_addressCode}",              
@@ -18386,10 +18009,13 @@
       "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
    "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
       "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}"                    
-    }   ,
+   "email": "${internat_shippingAddress_email}" ,
+ "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
 "receivingAddress":{
- "contactPartnerId": "${internat_consignee_contactPartnerId}",         
+ "contactPartnerId": "${internat_consignee_contactPartnerId}",           
   "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
   "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
   "addressCode": "${internat_receivingAddress_addressCode}",             
@@ -18410,12 +18036,22 @@
    "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
   "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
    "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}"                                      
-    }  ,
+ "email": "${internat_receivingAddress_email}" ,
+ "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
+ "airTransportationNode": {
+   "designatedAirport": True,
+   "dischargeAirportId": "${air_dest_id}",
+   "originAirportId": "${air_origin_id}"
+  },
 "receivingAddressSameAsConsignee":True,
 "shippingAddressSameAsShipper":True,
 "originCityId": "${internat_cityCode_1}",
-"destinationCityId": "${internat_cityCode_2}"
+"originLocationCode":"${five_word_id_3}",
+"destinationCityId": "${internat_cityCode_2}",
+"destinationLocationCode":"${five_word_id_4}"
   },
  "shippingInfo": {
  "shipper":{                                           
@@ -18447,7 +18083,6 @@
  "isInternationalPartner": True
           }  ,                                                              
    "pickUp":True,
-   "marksAndNumbers":"${@CHAR}",
  "consignee":{                                         
          "contactPartnerId": "${internat_consignee_contactPartnerId}",    
          "contactPartnerName": "${internat_consignee_contactPartnerName}",  
@@ -18565,14 +18200,14 @@
   "bulkCartonQty": 14,
   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
   "cargoDescription": "${@ENGLISH_COMPANY}",
+  "marksAndNumbers":"${@CHAR}",
   "cargoInfoLines": [
    {
-    "companyPn": "${internat_air_part_no}",
-    "descriptionGoods": "${internat_air_description}",
+    "companyPn": "${internatal_air_part_no}",
+    "descriptionGoods": "${internatal_air_description}",
     "hsCode": "465ASDFASDF_A",
     "invoiceNumber": "ASDFaa",
-    "referenceLineNo": "${internat_air_po_line}",
-    "referenceNo": "${internat_air_po_no}",
+    "referenceLineNo": "${internatal_air_po_line}",
     "unitPrice": "13699.112233",
     "volume": "13699.112233",
     "width": "23699.112233",
@@ -18584,12 +18219,10 @@
     "netWeight": "73699.112233",
  "bulkCartonQty": 1,
     "bulkCartonQtyUnitCode": "${units_id}",
-    "originCityId": "${origin_city_code}",
-    "destinationCityId": "${destion_city_code}",
  "pieceQty": 11,
  "pieceQtyUnitCode": "${units_id}",
  "cargoQty": 1,
- "cargoQtyUnitCode": "${internat_air_uom}",
+ "cargoQtyUnitCode": "${internatal_air_uom}",
  "cartonNos":["${@PHONE}"],
  "totalPackageQty": 1,
  "totalPackageQtyUnitCode": "${units_id}",
@@ -18598,59 +18231,9 @@
             "referenceOrderTypeCode": "${internat_reference_order_id}",
             "referenceOrderTypeName": "${internat_reference_order_name}",
             "referenceOrderNos": [
-                "${@PHONE}"
+                "${internatal_air_po_no}"
             ]
         }
-    },
- "shippingAddress":
-     { 
-  "contactPartnerId": "${internat_shipper_contactPartnerId}",
-     "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${internat_shippingAddress_addressCode}",              
-     "countryCode": "${internat_shippingAddress_countryCode}",              
-          "countryName": "${internat_shippingAddress_countryName}",              
-     "provinceCode": "${internat_shippingAddress_provinceCode}",             
-          "provinceName": "${internat_shippingAddress_provinceName}",             
-     "cityCode": "${internat_shippingAddress_cityCode}",                 
-          "cityName": "${internat_shippingAddress_cityName}",                 
-     "districtCode": "${internat_shippingAddress_districtCode}",             
-          "districtName": "${internat_shippingAddress_districtName}",             
-     "streetCode": "${internat_shippingAddress_streetCode}",               
-          "streetName": "${internat_shippingAddress_streetName}",               
-     "addressDetail": "${internat_shippingAddress_addressDetail}",            
-     "postCode": "${internat_shippingAddress_postCode}",                 
-     "contactName": "${internat_shippingAddress_contactName}",              
-     "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-          "mobileArea": "${internat_shippingAddress_mobileArea}",               
-     "email": "${internat_shippingAddress_email}"                    
-    },
- "receivingAddress":
-    {  
-  "contactPartnerId": "${internat_consignee_contactPartnerId}",
-      "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${internat_receivingAddress_addressCode}",             
-      "countryCode": "${internat_receivingAddress_countryCode}",             
-           "countryName": "${internat_receivingAddress_countryName}",              
-      "provinceCode": "${internat_receivingAddress_provinceCode}",            
-           "provinceName": "${internat_receivingAddress_provinceName}",             
-      "cityCode": "${internat_receivingAddress_cityCode}",                
-           "cityName": "${internat_receivingAddress_cityName}",                 
-      "districtCode": "${internat_receivingAddress_districtCode}",            
-           "districtName": "${internat_receivingAddress_districtName}",             
-      "streetCode": "${internat_receivingAddress_streetCode}",              
-           "streetName": "${internat_receivingAddress_streetName}",               
-      "addressDetail": "${internat_receivingAddress_addressDetail}",           
-      "postCode": "${internat_receivingAddress_postCode}",                
-      "contactName": "${internat_receivingAddress_contactName}",             
-      "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-           "mobileArea": "${internat_receivingAddress_mobileArea}",               
-     "email": "${internat_receivingAddress_email}"                     
     }
    }
   ]
@@ -18764,11 +18347,11 @@
   </si>
   <si>
     <t>{
- "referenceOrderGroups": {
+"referenceOrderGroups": {
         "FLT_PUR": {
             "referenceOrderTypeCode": "FLT_PUR",
             "referenceOrderNos": [
-                "${internat_air_po_no}"
+                "${internatal_air_po_no}"
             ]
         }
     },
@@ -18784,8 +18367,8 @@
  ],
  "addressInfo": 
   {
-   "shippingAddress":{
- "contactPartnerId": "${internat_shipper_contactPartnerId}",
+   "shippingAddress":{ 
+ "contactPartnerId": "${internat_shipper_contactPartnerId}",                                        
    "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
    "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
    "addressCode": "${internat_shippingAddress_addressCode}",              
@@ -18806,10 +18389,13 @@
       "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
    "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
       "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}"                    
-    }   ,
-"receivingAddress":{ 
- "contactPartnerId": "${internat_consignee_contactPartnerId}",       
+   "email": "${internat_shippingAddress_email}" ,
+ "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
+"receivingAddress":{
+ "contactPartnerId": "${internat_consignee_contactPartnerId}",           
   "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
   "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
   "addressCode": "${internat_receivingAddress_addressCode}",             
@@ -18830,12 +18416,22 @@
    "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
   "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
    "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}"                                      
-    }  ,
+ "email": "${internat_receivingAddress_email}" ,
+ "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
+ "airTransportationNode": {
+   "designatedAirport": True,
+   "dischargeAirportId": "${air_dest_id}",
+   "originAirportId": "${air_origin_id}"
+  },
 "receivingAddressSameAsConsignee":True,
 "shippingAddressSameAsShipper":True,
 "originCityId": "${internat_cityCode_1}",
-"destinationCityId": "${internat_cityCode_2}"
+"originLocationCode":"${five_word_id_3}",
+"destinationCityId": "${internat_cityCode_2}",
+"destinationLocationCode":"${five_word_id_4}"
   },
  "shippingInfo": {
  "shipper":{                                           
@@ -18867,7 +18463,6 @@
  "isInternationalPartner": True
           }  ,                                                              
    "pickUp":True,
-   "marksAndNumbers":"${@CHAR}",
  "consignee":{                                         
          "contactPartnerId": "${internat_consignee_contactPartnerId}",    
          "contactPartnerName": "${internat_consignee_contactPartnerName}",  
@@ -18985,14 +18580,14 @@
   "bulkCartonQty": 14,
   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
   "cargoDescription": "${@ENGLISH_COMPANY}",
+  "marksAndNumbers":"${@CHAR}",
   "cargoInfoLines": [
    {
-    "companyPn": "${internat_air_part_no}",
-    "descriptionGoods": "${internat_air_description}",
+    "companyPn": "${internatal_air_part_no}",
+    "descriptionGoods": "${internatal_air_description}",
     "hsCode": "465ASDFASDF_A",
     "invoiceNumber": "ASDFaa",
-    "referenceLineNo": "${internat_air_po_line}",
-    "referenceNo": "${internat_air_po_no}",
+    "referenceLineNo": "${internatal_air_po_line}",
     "unitPrice": "13699.112233",
     "volume": "13699.112233",
     "width": "23699.112233",
@@ -19004,12 +18599,10 @@
     "netWeight": "73699.112233",
  "bulkCartonQty": 1,
     "bulkCartonQtyUnitCode": "${units_id}",
-    "originCityId": "${origin_city_code}",
-    "destinationCityId": "${destion_city_code}",
  "pieceQty": 11,
  "pieceQtyUnitCode": "${units_id}",
  "cargoQty": 1,
- "cargoQtyUnitCode": "${internat_air_uom}",
+ "cargoQtyUnitCode": "${internatal_air_uom}",
  "cartonNos":["${@PHONE}"],
  "totalPackageQty": 1,
  "totalPackageQtyUnitCode": "${units_id}",
@@ -19017,59 +18610,9 @@
         "FLT_PUR": {
             "referenceOrderTypeCode": "FLT_PUR",
             "referenceOrderNos": [
-                "${internat_air_po_no}"
+                "${internatal_air_po_no}"
             ]
         }
-    },
- "shippingAddress":
-     {
-  "contactPartnerId": "${internat_shipper_contactPartnerId}",
-     "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${internat_shippingAddress_addressCode}",              
-     "countryCode": "${internat_shippingAddress_countryCode}",              
-          "countryName": "${internat_shippingAddress_countryName}",              
-     "provinceCode": "${internat_shippingAddress_provinceCode}",             
-          "provinceName": "${internat_shippingAddress_provinceName}",             
-     "cityCode": "${internat_shippingAddress_cityCode}",                 
-          "cityName": "${internat_shippingAddress_cityName}",                 
-     "districtCode": "${internat_shippingAddress_districtCode}",             
-          "districtName": "${internat_shippingAddress_districtName}",             
-     "streetCode": "${internat_shippingAddress_streetCode}",               
-          "streetName": "${internat_shippingAddress_streetName}",               
-     "addressDetail": "${internat_shippingAddress_addressDetail}",            
-     "postCode": "${internat_shippingAddress_postCode}",                 
-     "contactName": "${internat_shippingAddress_contactName}",              
-     "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-          "mobileArea": "${internat_shippingAddress_mobileArea}",               
-     "email": "${internat_shippingAddress_email}"                    
-    },
- "receivingAddress":
-    {  
-  "contactPartnerId": "${internat_consignee_contactPartnerId}",
-      "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${internat_receivingAddress_addressCode}",             
-      "countryCode": "${internat_receivingAddress_countryCode}",             
-           "countryName": "${internat_receivingAddress_countryName}",              
-      "provinceCode": "${internat_receivingAddress_provinceCode}",            
-           "provinceName": "${internat_receivingAddress_provinceName}",             
-      "cityCode": "${internat_receivingAddress_cityCode}",                
-           "cityName": "${internat_receivingAddress_cityName}",                 
-      "districtCode": "${internat_receivingAddress_districtCode}",            
-           "districtName": "${internat_receivingAddress_districtName}",             
-      "streetCode": "${internat_receivingAddress_streetCode}",              
-           "streetName": "${internat_receivingAddress_streetName}",               
-      "addressDetail": "${internat_receivingAddress_addressDetail}",           
-      "postCode": "${internat_receivingAddress_postCode}",                
-      "contactName": "${internat_receivingAddress_contactName}",             
-      "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-           "mobileArea": "${internat_receivingAddress_mobileArea}",               
-     "email": "${internat_receivingAddress_email}"                     
     }
    }
   ]
@@ -19255,31 +18798,34 @@
  "id":${international_express_save_id},
 "addressInfo": 
   {
-   "shippingAddress":
-     {                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}"                    
-    },
-   "shippingAddressSameAsShipper":True
+  "shippingAddress":
+    { 
+      "contactPartnerId": "${internat_shipper_contactPartnerId}",                                      
+      "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",     
+      "addressCode": "${internat_shippingAddress_addressCode}",             
+      "countryCode": "${internat_shippingAddress_countryCode}",             
+           "countryName": "${internat_shippingAddress_countryName}",              
+      "provinceCode": "${internat_shippingAddress_provinceCode}",            
+           "provinceName": "${internat_shippingAddress_provinceName}",             
+      "cityCode": "${internat_shippingAddress_cityCode}",                
+           "cityName": "${internat_shippingAddress_cityName}",                 
+      "districtCode": "${internat_shippingAddress_districtCode}",            
+           "districtName": "${internat_shippingAddress_districtName}",             
+      "streetCode": "${internat_shippingAddress_streetCode}",              
+           "streetName": "${internat_shippingAddress_streetName}",               
+      "addressDetail": "${internat_shippingAddress_addressDetail}",           
+      "postCode": "${internat_shippingAddress_postCode}",                
+      "contactName": "${internat_shippingAddress_contactName}",             
+      "telephoneArea": "${internat_shippingAddress_telephoneArea}",            
+           "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
+      "mobileNumber": "${internat_shippingAddress_mobileNumber}",            
+           "mobileArea": "${internat_shippingAddress_mobileArea}",               
+     "email": "${internat_shippingAddress_email}",
+      "transportLocationCode":"${internat_shippingAddress_transportLocationCode}"                 
+    }
+   ,
+"shippingAddressSameAsShipper":True
   }
 }</t>
   </si>
@@ -19290,62 +18836,10 @@
     <t>运输下单-国际快递-详情查询运输信息的提货地址相关信息与保存是否一致</t>
   </si>
   <si>
-    <t>[
-["Equal","True","$..success"],
-["Equal","${cn_shippingAddress_contactPartnerAddressId}","$..addressInfo..shippingAddress..contactPartnerAddressId"], 
-["Equal","${cn_shippingAddress_addressAbbreviation}","$..addressInfo..shippingAddress..addressAbbreviation"],         
-["Equal","${cn_shippingAddress_addressCode}","$..addressInfo..shippingAddress..addressCode"],                         
-["Equal","${cn_shippingAddress_countryCode}","$..addressInfo..shippingAddress..countryCode"],                         
-["Equal","${cn_shippingAddress_countryName}","$..addressInfo..shippingAddress..countryName"],                         
-["Equal","${cn_shippingAddress_provinceCode}","$..addressInfo..shippingAddress..provinceCode"],                       
-["Equal","${cn_shippingAddress_provinceName}","$..addressInfo..shippingAddress..provinceName"],                       
-["Equal","${cn_shippingAddress_cityCode}","$..addressInfo..shippingAddress..cityCode"],                               
-["Equal","${cn_shippingAddress_cityName}","$..addressInfo..shippingAddress..cityName"],                               
-["Equal","${cn_shippingAddress_districtCode}","$..addressInfo..shippingAddress..districtCode"],                       
-["Equal","${cn_shippingAddress_districtName}","$..addressInfo..shippingAddress..districtName"],                       
-["Equal","${cn_shippingAddress_streetCode}","$..addressInfo..shippingAddress..streetCode"],                           
-["Equal","${cn_shippingAddress_streetName}","$..addressInfo..shippingAddress..streetName"],                           
-["Equal","${cn_shippingAddress_addressDetail}","$..addressInfo..shippingAddress..addressDetail"],                     
-["Equal","${cn_shippingAddress_postCode}","$..addressInfo..shippingAddress..postCode"],                               
-["Equal","${cn_shippingAddress_contactName}","$..addressInfo..shippingAddress..contactName"],                         
-["Equal","${cn_shippingAddress_telephoneArea}","$..addressInfo..shippingAddress..telephoneArea"],                     
-["Equal","${cn_shippingAddress_telephoneNumber}","$..addressInfo..shippingAddress..telephoneNumber"],                 
-["Equal","${cn_shippingAddress_mobileNumber}","$..addressInfo..shippingAddress..mobileNumber"],                       
-["Equal","${cn_shippingAddress_mobileArea}","$..addressInfo..shippingAddress..mobileArea"],                           
-["Equal","${cn_shippingAddress_email}","$..addressInfo..shippingAddress..email"],                                   
-]</t>
-  </si>
-  <si>
     <t>0892</t>
   </si>
   <si>
     <t>运输下单-国际快递-详情查询(简易信息)运输信息的提货地址相关信息与保存是否一致</t>
-  </si>
-  <si>
-    <t>[
-["Equal","True","$..success"],
-["Equal","${cn_shippingAddress_contactPartnerAddressId}","$..addressInfo..shippingAddress..contactPartnerAddressId"], 
-["Equal","${cn_shippingAddress_addressAbbreviation}","$..addressInfo..shippingAddress..addressAbbreviation"],         
-["Equal","${cn_shippingAddress_addressCode}","$..addressInfo..shippingAddress..addressCode"],                         
-["Equal","${cn_shippingAddress_countryCode}","$..addressInfo..shippingAddress..countryCode"],                         
-["Equal","${cn_shippingAddress_countryName}","$..addressInfo..shippingAddress..countryName"],                         
-["Equal","${cn_shippingAddress_provinceCode}","$..addressInfo..shippingAddress..provinceCode"],                       
-["Equal","${cn_shippingAddress_provinceName}","$..addressInfo..shippingAddress..provinceName"],                       
-["Equal","${cn_shippingAddress_cityCode}","$..addressInfo..shippingAddress..cityCode"],                               
-["Equal","${cn_shippingAddress_cityName}","$..addressInfo..shippingAddress..cityName"],                               
-["Equal","${cn_shippingAddress_districtCode}","$..addressInfo..shippingAddress..districtCode"],                       
-["Equal","${cn_shippingAddress_districtName}","$..addressInfo..shippingAddress..districtName"],                       
-["Equal","${cn_shippingAddress_streetCode}","$..addressInfo..shippingAddress..streetCode"],                           
-["Equal","${cn_shippingAddress_streetName}","$..addressInfo..shippingAddress..streetName"],                           
-["Equal","${cn_shippingAddress_addressDetail}","$..addressInfo..shippingAddress..addressDetail"],                     
-["Equal","${cn_shippingAddress_postCode}","$..addressInfo..shippingAddress..postCode"],                               
-["Equal","${cn_shippingAddress_contactName}","$..addressInfo..shippingAddress..contactName"],                         
-["Equal","${cn_shippingAddress_telephoneArea}","$..addressInfo..shippingAddress..telephoneArea"],                     
-["Equal","${cn_shippingAddress_telephoneNumber}","$..addressInfo..shippingAddress..telephoneNumber"],                 
-["Equal","${cn_shippingAddress_mobileNumber}","$..addressInfo..shippingAddress..mobileNumber"],                       
-["Equal","${cn_shippingAddress_mobileArea}","$..addressInfo..shippingAddress..mobileArea"],                           
-["Equal","${cn_shippingAddress_email}","$..addressInfo..shippingAddress..email"],                                  
-]</t>
   </si>
   <si>
     <t>0893</t>
@@ -19412,28 +18906,29 @@
 "addressInfo": 
   {
   "receivingAddress":
-    {                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}"                     
+    { 
+      "contactPartnerId": "${internat_consignee_contactPartnerId}",                                      
+      "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${internat_receivingAddress_addressCode}",             
+      "countryCode": "${internat_receivingAddress_countryCode}",             
+           "countryName": "${internat_receivingAddress_countryName}",              
+      "provinceCode": "${internat_receivingAddress_provinceCode}",            
+           "provinceName": "${internat_receivingAddress_provinceName}",             
+      "cityCode": "${internat_receivingAddress_cityCode}",                
+           "cityName": "${internat_receivingAddress_cityName}",                 
+      "districtCode": "${internat_receivingAddress_districtCode}",            
+           "districtName": "${internat_receivingAddress_districtName}",             
+      "streetCode": "${internat_receivingAddress_streetCode}",              
+           "streetName": "${internat_receivingAddress_streetName}",               
+      "addressDetail": "${internat_receivingAddress_addressDetail}",           
+      "postCode": "${internat_receivingAddress_postCode}",                
+      "contactName": "${internat_receivingAddress_contactName}",             
+      "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
+           "mobileArea": "${internat_receivingAddress_mobileArea}",               
+     "email": "${internat_receivingAddress_email}"                     
     }
    ,
 "receivingAddressSameAsConsignee":True
@@ -19445,32 +18940,6 @@
   </si>
   <si>
     <t>运输下单-国际快递-详情查询运输信息的收货地址相关信息与保存是否一致</t>
-  </si>
-  <si>
-    <t>[
-["Equal","True","$..success"],
- ["Equal","${cn_receivingAddress_contactPartnerAddressId}","$..addressInfo..receivingAddress..contactPartnerAddressId"],
- ["Equal","${cn_receivingAddress_addressAbbreviation}","$..addressInfo..receivingAddress..addressAbbreviation"],        
- ["Equal","${cn_receivingAddress_addressCode}","$..addressInfo..receivingAddress..addressCode"],                        
- ["Equal","${cn_receivingAddress_countryCode}","$..addressInfo..receivingAddress..countryCode"],                        
-["Equal","${cn_receivingAddress_countryName}","$..addressInfo..receivingAddress..countryName"],                          
- ["Equal","${cn_receivingAddress_provinceCode}","$..addressInfo..receivingAddress..provinceCode"],                      
-["Equal","${cn_receivingAddress_provinceName}","$..addressInfo..receivingAddress..provinceName"],                        
- ["Equal","${cn_receivingAddress_cityCode}","$..addressInfo..receivingAddress..cityCode"],                              
-["Equal","${cn_receivingAddress_cityName}","$..addressInfo..receivingAddress..cityName"],                                
- ["Equal","${cn_receivingAddress_districtCode}","$..addressInfo..receivingAddress..districtCode"],                      
-["Equal","${cn_receivingAddress_districtName}","$..addressInfo..receivingAddress..districtName"],                        
- ["Equal","${cn_receivingAddress_streetCode}","$..addressInfo..receivingAddress..streetCode"],                          
-["Equal","${cn_receivingAddress_streetName}","$..addressInfo..receivingAddress..streetName"],                            
- ["Equal","${cn_receivingAddress_addressDetail}","$..addressInfo..receivingAddress..addressDetail"],                    
- ["Equal","${cn_receivingAddress_postCode}","$..addressInfo..receivingAddress..postCode"],                              
- ["Equal","${cn_receivingAddress_contactName}","$..addressInfo..receivingAddress..contactName"],                        
- ["Equal","${cn_receivingAddress_telephoneArea}","$..addressInfo..receivingAddress..telephoneArea"],                    
-["Equal","${cn_receivingAddress_telephoneNumber}","$..addressInfo..receivingAddress..telephoneNumber"],                  
- ["Equal","${cn_receivingAddress_mobileNumber}","$..addressInfo..receivingAddress..mobileNumber"],                      
-["Equal","${cn_receivingAddress_mobileArea}","$..addressInfo..receivingAddress..mobileArea"],                            
-["Equal","${cn_receivingAddress_email}","$..addressInfo..receivingAddress..email"],                                          
-]</t>
   </si>
   <si>
     <t>0898</t>
@@ -19767,9 +19236,7 @@
 ["Equal","P123456!","$..cargoInfoLines..companyPn"],
 ["Equal","123SAFD@#","$..cargoInfoLines..descriptionGoods"],
 ["Equal","465ASDFASDF_A","$..cargoInfoLines..hsCode"],
-["Equal","ASDFaa","$..cargoInfoLines..invoiceNumber"],
 ["Equal","456456~@#","$..cargoInfoLines..referenceLineNo"],
-["Equal","asdfasdf#$%","$..cargoInfoLines..referenceNo"],
 ["Equal","13699.112233","$..cargoInfoLines..unitPrice"],
 ["Equal","13699.112233","$..cargoInfoLines..volume"],
 ["Equal","23699.112233","$..cargoInfoLines..width"],
@@ -19779,61 +19246,14 @@
 ["Equal","${currencyCode}","$..cargoInfoLines..currencyCode"],
 ["Equal","83699.112233","$..cargoInfoLines..grossWeight"],
 ["Equal","73699.112233","$..cargoInfoLines..netWeight"],
-["Equal","14","$..cargoInfoLines..bulkCartonQty"],
 ["Equal","${units_id}","$..cargoInfoLines..bulkCartonQtyUnitCode"],
-["Equal","11","$..cargoInfoLines..pieceQty"],
 ["Equal","${units_id}","$..cargoInfoLines..pieceQtyUnitCode"],
-["Equal","12","$..cargoInfoLines..totalPackageQty"],
 ["Equal","${units_id}","$..cargoInfoLines..totalPackageQtyUnitCode"],
-["Equal","${origin_city_code}","$..cargoInfoLines..originCityId"],
-["Equal","${destion_city_code}","$..cargoInfoLines..destinationCityId"],
 ["Equal","${cn_reference_order_id}","$..cargoInfoLines..referenceOrderTypeCode"],
 ["Equal","${PHONE}","$..cargoInfoLines..referenceOrderNos[0]"],
 ["Equal","12.000000","$..cargoInfoLines..cargoQty"],
 ["Equal","${units_id}","$..cargoInfoLines..cargoQtyUnitCode"],
-["Equal","${PHONE}","$..cargoInfoLines..cartonNos[0]"],
-["Equal","${cn_shippingAddress_contactPartnerAddressId}","$..shippingAddress..contactPartnerAddressId"], 
-["Equal","${cn_shippingAddress_addressAbbreviation}","$..shippingAddress..addressAbbreviation"],         
-["Equal","${cn_shippingAddress_addressCode}","$..shippingAddress..addressCode"],                         
-["Equal","${cn_shippingAddress_countryCode}","$..shippingAddress..countryCode"],                         
-["Equal","${cn_shippingAddress_countryName}","$..shippingAddress..countryName"],                         
-["Equal","${cn_shippingAddress_provinceCode}","$..shippingAddress..provinceCode"],                       
-["Equal","${cn_shippingAddress_provinceName}","$..shippingAddress..provinceName"],                       
-["Equal","${cn_shippingAddress_cityCode}","$..shippingAddress..cityCode"],                               
-["Equal","${cn_shippingAddress_cityName}","$..shippingAddress..cityName"],                               
-["Equal","${cn_shippingAddress_districtCode}","$..shippingAddress..districtCode"],                       
-["Equal","${cn_shippingAddress_districtName}","$..shippingAddress..districtName"],                       
-["Equal","${cn_shippingAddress_streetCode}","$..shippingAddress..streetCode"],                           
-["Equal","${cn_shippingAddress_streetName}","$..shippingAddress..streetName"],                           
-["Equal","${cn_shippingAddress_addressDetail}","$..shippingAddress..addressDetail"],                     
-["Equal","${cn_shippingAddress_postCode}","$..shippingAddress..postCode"],                               
-["Equal","${cn_shippingAddress_contactName}","$..shippingAddress..contactName"],                         
-["Equal","${cn_shippingAddress_telephoneArea}","$..shippingAddress..telephoneArea"],                     
-["Equal","${cn_shippingAddress_telephoneNumber}","$..shippingAddress..telephoneNumber"],                 
-["Equal","${cn_shippingAddress_mobileNumber}","$..shippingAddress..mobileNumber"],                       
-["Equal","${cn_shippingAddress_mobileArea}","$..shippingAddress..mobileArea"],                           
-["Equal","${cn_shippingAddress_email}","$..shippingAddress..email"],
- ["Equal","${cn_receivingAddress_contactPartnerAddressId}","$..receivingAddress..contactPartnerAddressId"],
- ["Equal","${cn_receivingAddress_addressAbbreviation}","$..receivingAddress..addressAbbreviation"],        
- ["Equal","${cn_receivingAddress_addressCode}","$..receivingAddress..addressCode"],                        
- ["Equal","${cn_receivingAddress_countryCode}","$..receivingAddress..countryCode"],                        
-["Equal","${cn_receivingAddress_countryName}","$..receivingAddress..countryName"],                          
- ["Equal","${cn_receivingAddress_provinceCode}","$..receivingAddress..provinceCode"],                      
-["Equal","${cn_receivingAddress_provinceName}","$..receivingAddress..provinceName"],                        
- ["Equal","${cn_receivingAddress_cityCode}","$..receivingAddress..cityCode"],                              
-["Equal","${cn_receivingAddress_cityName}","$..receivingAddress..cityName"],                                
- ["Equal","${cn_receivingAddress_districtCode}","$..receivingAddress..districtCode"],                      
-["Equal","${cn_receivingAddress_districtName}","$..receivingAddress..districtName"],                        
- ["Equal","${cn_receivingAddress_streetCode}","$..receivingAddress..streetCode"],                          
-["Equal","${cn_receivingAddress_streetName}","$..receivingAddress..streetName"],                            
- ["Equal","${cn_receivingAddress_addressDetail}","$..receivingAddress..addressDetail"],                    
- ["Equal","${cn_receivingAddress_postCode}","$..receivingAddress..postCode"],                              
- ["Equal","${cn_receivingAddress_contactName}","$..receivingAddress..contactName"],                        
- ["Equal","${cn_receivingAddress_telephoneArea}","$..receivingAddress..telephoneArea"],                    
-["Equal","${cn_receivingAddress_telephoneNumber}","$..receivingAddress..telephoneNumber"],                  
- ["Equal","${cn_receivingAddress_mobileNumber}","$..receivingAddress..mobileNumber"],                      
-["Equal","${cn_receivingAddress_mobileArea}","$..receivingAddress..mobileArea"],                            
-["Equal","${cn_receivingAddress_email}","$..receivingAddress..email"], 
+["Equal","${PHONE}","$..cargoInfoLines..cartonNos[0]"], 
 ]</t>
   </si>
   <si>
@@ -23523,9 +22943,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -23562,23 +22982,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -23593,14 +23007,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -23608,46 +23014,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -23670,7 +23037,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -23678,9 +23045,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -23699,10 +23110,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -23733,19 +23153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23763,7 +23195,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23775,13 +23219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23793,13 +23243,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23811,7 +23279,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23823,97 +23327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -23955,6 +23375,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -23966,16 +23416,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -24004,54 +23472,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -24060,10 +23480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -24072,133 +23492,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -24841,8 +24261,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24895,13 +24315,13 @@
         <v>1516</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
@@ -24911,7 +24331,7 @@
         <v>1519</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>293</v>
@@ -24922,13 +24342,13 @@
         <v>1521</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="14" t="s">
@@ -24945,13 +24365,13 @@
         <v>1525</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
@@ -24968,20 +24388,20 @@
         <v>1528</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -24993,13 +24413,13 @@
         <v>1531</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="14" t="s">
@@ -25008,7 +24428,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="7" ht="67" customHeight="1" spans="1:9">
@@ -25016,13 +24436,13 @@
         <v>1534</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="14" t="s">
@@ -25031,7 +24451,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="8" ht="129" customHeight="1" spans="1:9">
@@ -25039,20 +24459,20 @@
         <v>1536</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -25064,13 +24484,13 @@
         <v>1539</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="14" t="s">
@@ -25087,13 +24507,13 @@
         <v>1542</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="14" t="s">
@@ -25110,20 +24530,20 @@
         <v>1544</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -25135,13 +24555,13 @@
         <v>1547</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="14" t="s">
@@ -25150,7 +24570,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="21" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" ht="121" customHeight="1" spans="1:9">
@@ -25158,13 +24578,13 @@
         <v>1550</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="14" t="s">
@@ -25173,7 +24593,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="21" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="14" ht="141" customHeight="1" spans="1:9">
@@ -25181,20 +24601,20 @@
         <v>1553</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -25206,13 +24626,13 @@
         <v>1556</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="14" t="s">
@@ -25229,13 +24649,13 @@
         <v>1559</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="14" t="s">
@@ -25252,20 +24672,20 @@
         <v>1561</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -25277,13 +24697,13 @@
         <v>1564</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="14" t="s">
@@ -25292,7 +24712,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="19" ht="127" customHeight="1" spans="1:9">
@@ -25300,13 +24720,13 @@
         <v>1567</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="14" t="s">
@@ -25315,7 +24735,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" ht="127" customHeight="1" spans="1:9">
@@ -25323,20 +24743,20 @@
         <v>1569</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -25348,13 +24768,13 @@
         <v>1572</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="14" t="s">
@@ -25371,13 +24791,13 @@
         <v>1575</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="14" t="s">
@@ -25394,20 +24814,20 @@
         <v>1578</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -25419,13 +24839,13 @@
         <v>1581</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="14" t="s">
@@ -25442,13 +24862,13 @@
         <v>1584</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="14" t="s">
@@ -25465,20 +24885,20 @@
         <v>1586</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
@@ -25490,13 +24910,13 @@
         <v>1589</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="14" t="s">
@@ -25513,13 +24933,13 @@
         <v>1592</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="14" t="s">
@@ -25536,20 +24956,20 @@
         <v>1594</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
@@ -25561,13 +24981,13 @@
         <v>1597</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="14" t="s">
@@ -25581,16 +25001,16 @@
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="14" t="s">
@@ -25604,23 +25024,23 @@
     </row>
     <row r="32" ht="189" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
@@ -25629,16 +25049,16 @@
     </row>
     <row r="33" ht="189" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="14" t="s">
@@ -25647,21 +25067,21 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="14" t="s">
@@ -25670,28 +25090,28 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
@@ -25700,16 +25120,16 @@
     </row>
     <row r="36" ht="189" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="14" t="s">
@@ -25718,21 +25138,21 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="37" ht="189" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="14" t="s">
@@ -25741,28 +25161,28 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="38" ht="109" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -25771,16 +25191,16 @@
     </row>
     <row r="39" ht="107" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="14" t="s">
@@ -25789,21 +25209,21 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="40" ht="94" customHeight="1" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="14" t="s">
@@ -25812,28 +25232,28 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="41" ht="229.5" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -25842,16 +25262,16 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="14" t="s">
@@ -25865,16 +25285,16 @@
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="14" t="s">
@@ -25888,23 +25308,23 @@
     </row>
     <row r="44" ht="189" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -25913,16 +25333,16 @@
     </row>
     <row r="45" ht="189" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="14" t="s">
@@ -25936,16 +25356,16 @@
     </row>
     <row r="46" ht="189" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="14" t="s">
@@ -25959,23 +25379,23 @@
     </row>
     <row r="47" ht="189" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -25984,16 +25404,16 @@
     </row>
     <row r="48" ht="189" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="14" t="s">
@@ -26002,21 +25422,21 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="49" ht="189" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="14" t="s">
@@ -26025,28 +25445,28 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="50" ht="189" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -26055,16 +25475,16 @@
     </row>
     <row r="51" ht="189" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="14" t="s">
@@ -26073,21 +25493,21 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="52" ht="189" spans="1:9">
       <c r="A52" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="14" t="s">
@@ -26096,28 +25516,28 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="53" ht="229.5" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
@@ -26126,16 +25546,16 @@
     </row>
     <row r="54" ht="155" customHeight="1" spans="1:9">
       <c r="A54" s="9" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="14" t="s">
@@ -26149,16 +25569,16 @@
     </row>
     <row r="55" ht="160" customHeight="1" spans="1:9">
       <c r="A55" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="14" t="s">
@@ -26172,23 +25592,23 @@
     </row>
     <row r="56" ht="175" customHeight="1" spans="1:9">
       <c r="A56" s="9" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
@@ -26197,16 +25617,16 @@
     </row>
     <row r="57" ht="207" customHeight="1" spans="1:9">
       <c r="A57" s="9" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="14" t="s">
@@ -26215,12 +25635,12 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="27" t="s">
-        <v>1669</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="58" ht="229" customHeight="1" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>1812</v>
@@ -26229,7 +25649,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="14" t="s">
@@ -26238,12 +25658,12 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
       <c r="I58" s="27" t="s">
-        <v>1669</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="59" ht="189" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1813</v>
@@ -26252,7 +25672,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5" t="s">
@@ -26268,7 +25688,7 @@
     </row>
     <row r="60" ht="202.5" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>1815</v>
@@ -26277,7 +25697,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="14" t="s">
@@ -26286,12 +25706,12 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="61" ht="202.5" spans="1:9">
       <c r="A61" s="9" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>1816</v>
@@ -26300,7 +25720,7 @@
         <v>18</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="14" t="s">
@@ -26309,12 +25729,12 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="62" ht="189" spans="1:9">
       <c r="A62" s="9" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>1817</v>
@@ -26337,7 +25757,7 @@
     </row>
     <row r="63" ht="189" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>1819</v>
@@ -26346,7 +25766,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="14" t="s">
@@ -26360,7 +25780,7 @@
     </row>
     <row r="64" ht="188" customHeight="1" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1820</v>
@@ -26369,7 +25789,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="5" t="s">
@@ -26412,7 +25832,7 @@
     </row>
     <row r="66" ht="189" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>1825</v>
@@ -26435,7 +25855,7 @@
     </row>
     <row r="67" ht="189" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>1827</v>
@@ -26458,7 +25878,7 @@
     </row>
     <row r="68" ht="131" customHeight="1" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1820</v>
@@ -26467,17 +25887,17 @@
         <v>12</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>1829</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>1830</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>293</v>
@@ -26494,7 +25914,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5" t="s">
@@ -26510,7 +25930,7 @@
     </row>
     <row r="70" ht="189" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>1825</v>
@@ -26519,7 +25939,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5" t="s">
@@ -26533,16 +25953,16 @@
     </row>
     <row r="71" ht="189" spans="1:10">
       <c r="A71" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="14" t="s">
@@ -26559,16 +25979,16 @@
     </row>
     <row r="72" ht="189" spans="1:9">
       <c r="A72" s="9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="21" t="s">
@@ -26585,7 +26005,7 @@
         <v>1153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -26598,10 +26018,10 @@
         <v>799</v>
       </c>
       <c r="G73" s="15" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>1838</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>1839</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>809</v>
@@ -26612,13 +26032,13 @@
         <v>1153</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="14" t="s">
@@ -26627,7 +26047,7 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="75" ht="108" customHeight="1" spans="1:9">
@@ -26635,23 +26055,23 @@
         <v>1153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G75" s="15" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>1844</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>1845</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>809</v>
@@ -26662,13 +26082,13 @@
         <v>778</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="5" t="s">
@@ -26687,13 +26107,13 @@
         <v>1164</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="5" t="s">
@@ -26710,13 +26130,13 @@
         <v>1153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="14" t="s">
@@ -26736,13 +26156,13 @@
         <v>1169</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="21" t="s">
@@ -26999,8 +26419,8 @@
   <sheetPr/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27050,16 +26470,16 @@
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1854</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1855</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
@@ -27069,7 +26489,7 @@
         <v>1519</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>293</v>
@@ -27077,16 +26497,16 @@
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1858</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1859</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="21" t="s">
@@ -27100,16 +26520,16 @@
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>1861</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1862</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
@@ -27123,23 +26543,23 @@
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1864</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1865</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -27148,16 +26568,16 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1867</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1868</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="21" t="s">
@@ -27166,21 +26586,21 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="7" ht="67" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>1870</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1871</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="14" t="s">
@@ -27189,28 +26609,28 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1872</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1873</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -27219,16 +26639,16 @@
     </row>
     <row r="9" ht="96" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>1875</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1876</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="14" t="s">
@@ -27242,16 +26662,16 @@
     </row>
     <row r="10" ht="144" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>1877</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1878</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="14" t="s">
@@ -27265,23 +26685,23 @@
     </row>
     <row r="11" ht="114" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1879</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1880</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -27290,16 +26710,16 @@
     </row>
     <row r="12" ht="114" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>1882</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1883</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="14" t="s">
@@ -27307,22 +26727,22 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
-        <v>1884</v>
+      <c r="I12" s="21" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="13" ht="114" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="14" t="s">
@@ -27330,29 +26750,29 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
-        <v>1884</v>
+      <c r="I13" s="21" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="14" ht="114" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -27361,16 +26781,16 @@
     </row>
     <row r="15" ht="114" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="14" t="s">
@@ -27384,16 +26804,16 @@
     </row>
     <row r="16" ht="114" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="14" t="s">
@@ -27407,23 +26827,23 @@
     </row>
     <row r="17" ht="114" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -27432,16 +26852,16 @@
     </row>
     <row r="18" ht="114" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="14" t="s">
@@ -27450,21 +26870,21 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>1899</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="19" ht="114" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="14" t="s">
@@ -27473,28 +26893,28 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>1899</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="20" ht="114" customHeight="1" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -27503,16 +26923,16 @@
     </row>
     <row r="21" ht="114" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="14" t="s">
@@ -27526,16 +26946,16 @@
     </row>
     <row r="22" ht="114" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="14" t="s">
@@ -27549,23 +26969,23 @@
     </row>
     <row r="23" ht="114" customHeight="1" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -27574,16 +26994,16 @@
     </row>
     <row r="24" ht="114" customHeight="1" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="14" t="s">
@@ -27597,16 +27017,16 @@
     </row>
     <row r="25" ht="114" customHeight="1" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="14" t="s">
@@ -27620,23 +27040,23 @@
     </row>
     <row r="26" ht="216" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
@@ -27645,16 +27065,16 @@
     </row>
     <row r="27" ht="122" customHeight="1" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="21" t="s">
@@ -27668,16 +27088,16 @@
     </row>
     <row r="28" ht="117" customHeight="1" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="14" t="s">
@@ -27691,23 +27111,23 @@
     </row>
     <row r="29" ht="189" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
@@ -27716,16 +27136,16 @@
     </row>
     <row r="30" ht="189" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="21" t="s">
@@ -27734,21 +27154,21 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="14" t="s">
@@ -27757,28 +27177,28 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="21" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="32" ht="189" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -27787,16 +27207,16 @@
     </row>
     <row r="33" ht="189" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="21" t="s">
@@ -27805,21 +27225,21 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="14" t="s">
@@ -27828,28 +27248,28 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="27" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -27858,16 +27278,16 @@
     </row>
     <row r="36" ht="189" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="21" t="s">
@@ -27881,16 +27301,16 @@
     </row>
     <row r="37" ht="189" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="14" t="s">
@@ -27904,23 +27324,23 @@
     </row>
     <row r="38" ht="189" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -27929,16 +27349,16 @@
     </row>
     <row r="39" ht="189" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="21" t="s">
@@ -27947,21 +27367,21 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="40" ht="189" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="14" t="s">
@@ -27970,28 +27390,28 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="41" ht="189" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -28000,16 +27420,16 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="21" t="s">
@@ -28018,21 +27438,21 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="14" t="s">
@@ -28041,28 +27461,28 @@
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="44" ht="229.5" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -28071,16 +27491,16 @@
     </row>
     <row r="45" ht="155" customHeight="1" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="21" t="s">
@@ -28094,16 +27514,16 @@
     </row>
     <row r="46" ht="160" customHeight="1" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="14" t="s">
@@ -28117,23 +27537,23 @@
     </row>
     <row r="47" ht="189" customHeight="1" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -28142,16 +27562,16 @@
     </row>
     <row r="48" ht="201" customHeight="1" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="21" t="s">
@@ -28160,21 +27580,21 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="27" t="s">
-        <v>1669</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="49" ht="220" customHeight="1" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="14" t="s">
@@ -28183,28 +27603,28 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="27" t="s">
-        <v>1669</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="50" ht="189" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -28213,16 +27633,16 @@
     </row>
     <row r="51" ht="202.5" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="21" t="s">
@@ -28231,21 +27651,21 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="52" ht="202.5" spans="1:9">
       <c r="A52" s="9" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="14" t="s">
@@ -28254,21 +27674,21 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="27" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="53" ht="189" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="5" t="s">
@@ -28282,16 +27702,16 @@
     </row>
     <row r="54" ht="189" spans="1:9">
       <c r="A54" s="9" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="21" t="s">
@@ -28305,26 +27725,26 @@
     </row>
     <row r="55" ht="157" customHeight="1" spans="1:9">
       <c r="A55" s="9" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>293</v>
@@ -28335,13 +27755,13 @@
         <v>778</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="5" t="s">
@@ -28357,16 +27777,16 @@
     </row>
     <row r="57" ht="189" spans="1:9">
       <c r="A57" s="9" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="5" t="s">
@@ -28380,16 +27800,16 @@
     </row>
     <row r="58" ht="150" customHeight="1" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="21" t="s">
@@ -28403,26 +27823,26 @@
     </row>
     <row r="59" ht="129" customHeight="1" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>293</v>
@@ -28430,16 +27850,16 @@
     </row>
     <row r="60" ht="129" customHeight="1" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="5" t="s">
@@ -28453,16 +27873,16 @@
     </row>
     <row r="61" ht="129" customHeight="1" spans="1:9">
       <c r="A61" s="9" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="5" t="s">
@@ -28479,13 +27899,13 @@
         <v>778</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="5" t="s">
@@ -28501,16 +27921,16 @@
     </row>
     <row r="63" ht="142" customHeight="1" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="5" t="s">
@@ -28524,16 +27944,16 @@
     </row>
     <row r="64" ht="189" spans="1:10">
       <c r="A64" s="9" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="14" t="s">
@@ -28550,16 +27970,16 @@
     </row>
     <row r="65" ht="189" spans="1:9">
       <c r="A65" s="9" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E65" s="29"/>
       <c r="F65" s="21" t="s">
@@ -28576,7 +27996,7 @@
         <v>1153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -28589,10 +28009,10 @@
         <v>799</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="I66" s="15" t="s">
         <v>809</v>
@@ -28603,13 +28023,13 @@
         <v>1153</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="14" t="s">
@@ -28618,7 +28038,7 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="68" ht="113" customHeight="1" spans="1:9">
@@ -28626,23 +28046,23 @@
         <v>1153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>809</v>
@@ -28653,13 +28073,13 @@
         <v>1164</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5" t="s">
@@ -28676,13 +28096,13 @@
         <v>1153</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="14" t="s">
@@ -28702,13 +28122,13 @@
         <v>1169</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="21" t="s">
@@ -28735,8 +28155,8 @@
   <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28786,26 +28206,26 @@
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>293</v>
@@ -28813,16 +28233,16 @@
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="21" t="s">
@@ -28836,16 +28256,16 @@
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
@@ -28859,23 +28279,23 @@
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -28884,16 +28304,16 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="21" t="s">
@@ -28902,21 +28322,21 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="7" ht="67" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="14" t="s">
@@ -28925,28 +28345,28 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="8" ht="79" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -28955,16 +28375,16 @@
     </row>
     <row r="9" ht="79" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="21" t="s">
@@ -28978,16 +28398,16 @@
     </row>
     <row r="10" ht="79" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="14" t="s">
@@ -29001,23 +28421,23 @@
     </row>
     <row r="11" ht="79" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -29026,39 +28446,39 @@
     </row>
     <row r="12" ht="79" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="27" t="s">
-        <v>2065</v>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="21" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="13" ht="79" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="14" t="s">
@@ -29066,29 +28486,29 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="27" t="s">
-        <v>2068</v>
+      <c r="I13" s="21" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -29097,16 +28517,16 @@
     </row>
     <row r="15" ht="79" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="21" t="s">
@@ -29120,16 +28540,16 @@
     </row>
     <row r="16" ht="79" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="14" t="s">
@@ -29143,23 +28563,23 @@
     </row>
     <row r="17" ht="79" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -29168,39 +28588,39 @@
     </row>
     <row r="18" ht="79" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="27" t="s">
-        <v>2081</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="14" t="s">
@@ -29209,28 +28629,28 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="27" t="s">
-        <v>1411</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" ht="202.5" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -29239,16 +28659,16 @@
     </row>
     <row r="21" ht="146" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="21" t="s">
@@ -29262,16 +28682,16 @@
     </row>
     <row r="22" ht="134" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="14" t="s">
@@ -29285,23 +28705,23 @@
     </row>
     <row r="23" ht="189" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -29310,16 +28730,16 @@
     </row>
     <row r="24" ht="189" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="21" t="s">
@@ -29333,16 +28753,16 @@
     </row>
     <row r="25" ht="189" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="14" t="s">
@@ -29356,23 +28776,23 @@
     </row>
     <row r="26" ht="189" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -29381,16 +28801,16 @@
     </row>
     <row r="27" ht="189" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="21" t="s">
@@ -29399,21 +28819,21 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="28" ht="189" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="14" t="s">
@@ -29422,28 +28842,28 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="29" ht="189" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -29452,16 +28872,16 @@
     </row>
     <row r="30" ht="189" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="21" t="s">
@@ -29470,21 +28890,21 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="14" t="s">
@@ -29493,28 +28913,28 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="32" ht="216" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -29523,16 +28943,16 @@
     </row>
     <row r="33" ht="155" customHeight="1" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="21" t="s">
@@ -29546,16 +28966,16 @@
     </row>
     <row r="34" ht="160" customHeight="1" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="14" t="s">
@@ -29569,23 +28989,23 @@
     </row>
     <row r="35" ht="164" customHeight="1" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -29594,16 +29014,16 @@
     </row>
     <row r="36" ht="180" customHeight="1" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="21" t="s">
@@ -29612,21 +29032,21 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="37" ht="178" customHeight="1" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="14" t="s">
@@ -29635,28 +29055,28 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="27" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="38" ht="138" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -29665,16 +29085,16 @@
     </row>
     <row r="39" ht="162" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="21" t="s">
@@ -29688,16 +29108,16 @@
     </row>
     <row r="40" ht="137" customHeight="1" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="14" t="s">
@@ -29711,23 +29131,23 @@
     </row>
     <row r="41" ht="189" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -29736,16 +29156,16 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="21" t="s">
@@ -29759,16 +29179,16 @@
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="14" t="s">
@@ -29782,16 +29202,16 @@
     </row>
     <row r="44" ht="189" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="5" t="s">
@@ -29805,16 +29225,16 @@
     </row>
     <row r="45" ht="189" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="21" t="s">
@@ -29828,26 +29248,26 @@
     </row>
     <row r="46" ht="197" customHeight="1" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>293</v>
@@ -29858,13 +29278,13 @@
         <v>778</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="5" t="s">
@@ -29880,16 +29300,16 @@
     </row>
     <row r="48" ht="189" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="5" t="s">
@@ -29903,16 +29323,16 @@
     </row>
     <row r="49" ht="189" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="21" t="s">
@@ -29926,26 +29346,26 @@
     </row>
     <row r="50" ht="92" customHeight="1" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>293</v>
@@ -29956,13 +29376,13 @@
         <v>778</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="5" t="s">
@@ -29978,16 +29398,16 @@
     </row>
     <row r="52" ht="128" customHeight="1" spans="1:9">
       <c r="A52" s="9" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="5" t="s">
@@ -30001,16 +29421,16 @@
     </row>
     <row r="53" ht="189" spans="1:10">
       <c r="A53" s="9" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="14" t="s">
@@ -30027,16 +29447,16 @@
     </row>
     <row r="54" ht="189" spans="1:9">
       <c r="A54" s="9" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="21" t="s">
@@ -30053,7 +29473,7 @@
         <v>1153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -30066,10 +29486,10 @@
         <v>799</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>809</v>
@@ -30080,13 +29500,13 @@
         <v>1153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="14" t="s">
@@ -30095,7 +29515,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="57" ht="174" customHeight="1" spans="1:9">
@@ -30103,23 +29523,23 @@
         <v>1153</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>809</v>
@@ -30130,13 +29550,13 @@
         <v>1164</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="5" t="s">
@@ -30153,13 +29573,13 @@
         <v>1153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="14" t="s">
@@ -30179,13 +29599,13 @@
         <v>1169</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="21" t="s">
@@ -30263,23 +29683,23 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>799</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -30288,26 +29708,26 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>293</v>
@@ -30315,23 +29735,23 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="5" t="s">
         <v>799</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -30340,16 +29760,16 @@
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
@@ -30358,28 +29778,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="5" t="s">
         <v>799</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -30388,16 +29808,16 @@
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="5" t="s">
@@ -30406,31 +29826,31 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>293</v>
@@ -30438,48 +29858,48 @@
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="15" t="s">
@@ -30488,54 +29908,54 @@
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="15" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="13" ht="41" customHeight="1" spans="1:9">
@@ -30543,13 +29963,13 @@
         <v>1342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="14" t="s">
@@ -30557,7 +29977,7 @@
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="1" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>800</v>
@@ -30565,123 +29985,123 @@
     </row>
     <row r="14" ht="35" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="15" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="15" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="16" ht="35" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="15" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="17" ht="56" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="18" ht="59" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
@@ -30690,23 +30110,23 @@
     </row>
     <row r="19" ht="53" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15" t="s">
@@ -30715,276 +30135,276 @@
     </row>
     <row r="20" ht="57" customHeight="1" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="21" ht="57" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="22" ht="54" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="23" ht="54" customHeight="1" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="24" ht="53" customHeight="1" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="26" ht="63" customHeight="1" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="27" ht="68" customHeight="1" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="28" ht="68" customHeight="1" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="29" ht="68" customHeight="1" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="30" ht="68" customHeight="1" spans="1:9">
       <c r="A30" s="16" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18" t="s">
         <v>799</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>809</v>
@@ -30992,16 +30412,16 @@
     </row>
     <row r="31" ht="68" customHeight="1" spans="1:10">
       <c r="A31" s="19" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="21" t="s">
@@ -31010,7 +30430,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -31018,16 +30438,16 @@
     </row>
     <row r="32" s="13" customFormat="1" ht="78" customHeight="1" spans="1:9">
       <c r="A32" s="22" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="14" t="s">
@@ -31041,16 +30461,16 @@
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="14" t="s">
@@ -31064,26 +30484,26 @@
     </row>
     <row r="34" ht="108" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>293</v>
@@ -31091,26 +30511,26 @@
     </row>
     <row r="35" ht="118" customHeight="1" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>293</v>
@@ -31118,26 +30538,26 @@
     </row>
     <row r="36" ht="112" customHeight="1" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>293</v>
@@ -31145,26 +30565,26 @@
     </row>
     <row r="37" ht="115" customHeight="1" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>293</v>
@@ -31172,26 +30592,26 @@
     </row>
     <row r="38" ht="114" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>293</v>
@@ -31199,26 +30619,26 @@
     </row>
     <row r="39" ht="92" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>293</v>
@@ -31226,26 +30646,26 @@
     </row>
     <row r="40" ht="100" customHeight="1" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>293</v>
@@ -31253,26 +30673,26 @@
     </row>
     <row r="41" ht="130" customHeight="1" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>293</v>
@@ -31280,26 +30700,26 @@
     </row>
     <row r="42" ht="133" customHeight="1" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>293</v>
@@ -31307,53 +30727,53 @@
     </row>
     <row r="43" ht="139" customHeight="1" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="44" ht="108" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>293</v>
@@ -31361,76 +30781,76 @@
     </row>
     <row r="45" ht="108" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="15" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="46" ht="108" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="47" ht="90" customHeight="1" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>789</v>
@@ -31438,41 +30858,41 @@
     </row>
     <row r="48" ht="108" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="15" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="49" ht="108" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="14" t="s">
@@ -31486,54 +30906,54 @@
     </row>
     <row r="50" ht="117" customHeight="1" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="51" ht="108" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="14" t="s">
         <v>799</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="15" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
     </row>
   </sheetData>
@@ -31602,26 +31022,26 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>799</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>293</v>
@@ -31629,27 +31049,27 @@
     </row>
     <row r="3" ht="100" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
         <v>799</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
     </row>
   </sheetData>
@@ -31721,23 +31141,23 @@
         <v>799</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>293</v>
@@ -31745,13 +31165,13 @@
     </row>
     <row r="3" ht="88" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5" t="s">
@@ -31768,13 +31188,13 @@
         <v>800</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="5" t="s">
@@ -31791,7 +31211,7 @@
         <v>801</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -31804,10 +31224,10 @@
         <v>619</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>293</v>
@@ -31818,13 +31238,13 @@
         <v>802</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5" t="s">
@@ -31841,7 +31261,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -31854,7 +31274,7 @@
         <v>619</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1339</v>
@@ -31904,7 +31324,7 @@
         <v>619</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1143</v>
@@ -31954,7 +31374,7 @@
         <v>619</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>984</v>
@@ -32004,7 +31424,7 @@
         <v>619</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>792</v>
@@ -32051,10 +31471,10 @@
         <v>619</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>293</v>
@@ -32068,7 +31488,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -32082,23 +31502,23 @@
     </row>
     <row r="17" ht="117" customHeight="1" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>293</v>
@@ -32106,13 +31526,13 @@
     </row>
     <row r="18" ht="108" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -32190,23 +31610,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>293</v>
@@ -32217,20 +31637,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -32239,24 +31659,24 @@
     </row>
     <row r="4" ht="108" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>619</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
     </row>
   </sheetData>
@@ -32271,8 +31691,8 @@
   <sheetPr/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36020,7 +35440,7 @@
       <c r="K20" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I19">
+  <autoFilter ref="A1:I20">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39265,7 +38685,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" ht="189" spans="1:9">
+    <row r="58" ht="409.5" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>970</v>
       </c>
@@ -41116,7 +40536,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="52" ht="250.4" spans="1:9">
+    <row r="52" ht="409.5" spans="1:9">
       <c r="A52" s="9" t="s">
         <v>1129</v>
       </c>
@@ -44866,8 +44286,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -45601,15 +45021,15 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>1599</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>1600</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>1601</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>18</v>
@@ -45629,10 +45049,10 @@
     </row>
     <row r="32" ht="189" spans="1:9">
       <c r="A32" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1602</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1603</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>12</v>
@@ -45645,7 +45065,7 @@
         <v>619</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
@@ -45654,10 +45074,10 @@
     </row>
     <row r="33" ht="189" spans="1:9">
       <c r="A33" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>1605</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>1606</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>18</v>
@@ -45672,15 +45092,15 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
       <c r="A34" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>1608</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>1609</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>18</v>
@@ -45695,15 +45115,15 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
       <c r="A35" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>1610</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1611</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>12</v>
@@ -45716,7 +45136,7 @@
         <v>619</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
@@ -45725,10 +45145,10 @@
     </row>
     <row r="36" ht="189" spans="1:9">
       <c r="A36" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>1613</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>1614</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>18</v>
@@ -45743,15 +45163,15 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="37" ht="189" spans="1:9">
       <c r="A37" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>1616</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>1617</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>18</v>
@@ -45766,15 +45186,15 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="38" ht="109" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>1618</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1619</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
@@ -45787,7 +45207,7 @@
         <v>619</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -45796,10 +45216,10 @@
     </row>
     <row r="39" ht="107" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>1621</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>1622</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>18</v>
@@ -45814,15 +45234,15 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="40" ht="94" customHeight="1" spans="1:9">
       <c r="A40" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>1624</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>1625</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>18</v>
@@ -45837,15 +45257,15 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="41" ht="229.5" spans="1:9">
       <c r="A41" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>1626</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1627</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
@@ -45858,7 +45278,7 @@
         <v>619</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -45867,10 +45287,10 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>1629</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>1630</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>18</v>
@@ -45890,10 +45310,10 @@
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>1631</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>1632</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>18</v>
@@ -45913,10 +45333,10 @@
     </row>
     <row r="44" ht="189" spans="1:9">
       <c r="A44" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1634</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -45929,7 +45349,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -45938,10 +45358,10 @@
     </row>
     <row r="45" ht="189" spans="1:9">
       <c r="A45" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>1636</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>1637</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>18</v>
@@ -45961,10 +45381,10 @@
     </row>
     <row r="46" ht="189" spans="1:9">
       <c r="A46" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>1638</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>1639</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>18</v>
@@ -45984,10 +45404,10 @@
     </row>
     <row r="47" ht="189" spans="1:9">
       <c r="A47" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1640</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1641</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
@@ -46000,7 +45420,7 @@
         <v>619</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -46009,10 +45429,10 @@
     </row>
     <row r="48" ht="189" spans="1:9">
       <c r="A48" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>1643</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>1644</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>18</v>
@@ -46027,15 +45447,15 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="49" ht="189" spans="1:9">
       <c r="A49" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>1646</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>1647</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>18</v>
@@ -46050,15 +45470,15 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="50" ht="189" spans="1:9">
       <c r="A50" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1648</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1649</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
@@ -46071,7 +45491,7 @@
         <v>619</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -46080,10 +45500,10 @@
     </row>
     <row r="51" ht="189" spans="1:9">
       <c r="A51" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>1651</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>1652</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>18</v>
@@ -46098,15 +45518,15 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="52" ht="189" spans="1:9">
       <c r="A52" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>1654</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>1655</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>18</v>
@@ -46121,15 +45541,15 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="53" ht="229.5" spans="1:9">
       <c r="A53" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1658</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
@@ -46142,7 +45562,7 @@
         <v>619</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
@@ -46151,10 +45571,10 @@
     </row>
     <row r="54" ht="155" customHeight="1" spans="1:9">
       <c r="A54" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>1660</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>1661</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>18</v>
@@ -46174,10 +45594,10 @@
     </row>
     <row r="55" ht="160" customHeight="1" spans="1:9">
       <c r="A55" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>1662</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>1663</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>18</v>
@@ -46197,10 +45617,10 @@
     </row>
     <row r="56" ht="175" customHeight="1" spans="1:9">
       <c r="A56" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1664</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1665</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>12</v>
@@ -46213,7 +45633,7 @@
         <v>619</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
@@ -46222,10 +45642,10 @@
     </row>
     <row r="57" ht="207" customHeight="1" spans="1:9">
       <c r="A57" s="9" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>1667</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>1668</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>18</v>
@@ -46240,15 +45660,15 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="27" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="58" ht="229" customHeight="1" spans="1:9">
       <c r="A58" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>1670</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>1671</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>18</v>
@@ -46263,15 +45683,15 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
       <c r="I58" s="27" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="59" ht="189" spans="1:9">
       <c r="A59" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1672</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1673</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>12</v>
@@ -46284,7 +45704,7 @@
         <v>619</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
@@ -46293,10 +45713,10 @@
     </row>
     <row r="60" ht="202.5" spans="1:9">
       <c r="A60" s="9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>1675</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>1676</v>
       </c>
       <c r="C60" s="31" t="s">
         <v>18</v>
@@ -46311,15 +45731,15 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="61" ht="202.5" spans="1:9">
       <c r="A61" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>1678</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>1679</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>18</v>
@@ -46334,21 +45754,21 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="62" ht="189" spans="1:9">
       <c r="A62" s="9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>1680</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>1681</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="5" t="s">
@@ -46362,10 +45782,10 @@
     </row>
     <row r="63" ht="189" spans="1:9">
       <c r="A63" s="9" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>1683</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>1684</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>18</v>
@@ -46385,10 +45805,10 @@
     </row>
     <row r="64" ht="188" customHeight="1" spans="1:9">
       <c r="A64" s="9" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>1686</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>12</v>
@@ -46401,10 +45821,10 @@
         <v>619</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>1688</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>293</v>
@@ -46415,13 +45835,13 @@
         <v>778</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="5" t="s">
@@ -46437,16 +45857,16 @@
     </row>
     <row r="66" ht="189" spans="1:9">
       <c r="A66" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>1691</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>1692</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="5" t="s">
@@ -46460,16 +45880,16 @@
     </row>
     <row r="67" ht="189" spans="1:9">
       <c r="A67" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>1694</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>1695</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="14" t="s">
@@ -46483,10 +45903,10 @@
     </row>
     <row r="68" ht="131" customHeight="1" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -46499,10 +45919,10 @@
         <v>619</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>1698</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>1699</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>293</v>
@@ -46513,13 +45933,13 @@
         <v>778</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="5" t="s">
@@ -46535,16 +45955,16 @@
     </row>
     <row r="70" ht="189" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="5" t="s">
@@ -46558,16 +45978,16 @@
     </row>
     <row r="71" ht="189" spans="1:10">
       <c r="A71" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>1703</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1704</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="14" t="s">
@@ -46584,16 +46004,16 @@
     </row>
     <row r="72" ht="189" spans="1:9">
       <c r="A72" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>1706</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>1707</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="21" t="s">
@@ -46610,7 +46030,7 @@
         <v>1153</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -46623,10 +46043,10 @@
         <v>799</v>
       </c>
       <c r="G73" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>1710</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>1711</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>809</v>
@@ -46637,13 +46057,13 @@
         <v>1153</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="14" t="s">
@@ -46652,7 +46072,7 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="75" ht="108" customHeight="1" spans="1:9">
@@ -46660,7 +46080,7 @@
         <v>1153</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -46673,10 +46093,10 @@
         <v>799</v>
       </c>
       <c r="G75" s="15" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>1716</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>1717</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>809</v>
@@ -46687,13 +46107,13 @@
         <v>778</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="5" t="s">
@@ -46712,13 +46132,13 @@
         <v>1164</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="5" t="s">
@@ -46735,13 +46155,13 @@
         <v>1153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="14" t="s">
@@ -46761,13 +46181,13 @@
         <v>1169</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="21" t="s">
